--- a/data/output/generative_annotation/gemini-2-0-flash-2-annotations.xlsx
+++ b/data/output/generative_annotation/gemini-2-0-flash-2-annotations.xlsx
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M274" t="n">
         <v>0</v>
@@ -23617,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="Q297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R297" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="O402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P402" t="n">
         <v>0</v>
@@ -31959,7 +31959,7 @@
         <v>0</v>
       </c>
       <c r="O404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P404" t="n">
         <v>0</v>
@@ -40863,7 +40863,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T518" t="n">
         <v>0</v>
@@ -50769,7 +50769,7 @@
         <v>0</v>
       </c>
       <c r="S645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T645" t="n">
         <v>0</v>
@@ -59350,7 +59350,7 @@
         <v>0</v>
       </c>
       <c r="Q755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R755" t="n">
         <v>0</v>
@@ -74809,7 +74809,7 @@
         <v>0</v>
       </c>
       <c r="S953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T953" t="n">
         <v>0</v>
@@ -78073,7 +78073,7 @@
         <v>0</v>
       </c>
       <c r="O995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P995" t="n">
         <v>0</v>
@@ -81907,7 +81907,7 @@
         <v>0</v>
       </c>
       <c r="S1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1044" t="n">
         <v>0</v>
@@ -86438,7 +86438,7 @@
         <v>0</v>
       </c>
       <c r="S1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1102" t="n">
         <v>0</v>
